--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,36 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VikramPhatangare\eclipse-workspace\PageObjectModelWithPageFactories\src\test\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14690" windowHeight="2360" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="loginTest" sheetId="2" r:id="rId1"/>
-    <sheet name="addCustomerTest" sheetId="3" r:id="rId2"/>
-    <sheet name="openAccountTest" sheetId="4" r:id="rId3"/>
-    <sheet name="findCarTest" sheetId="5" r:id="rId4"/>
-    <sheet name="carPriceTest" sheetId="6" r:id="rId5"/>
+    <sheet name="sanityTest" sheetId="2" r:id="rId1"/>
+    <sheet name="sampleTest" sheetId="8" r:id="rId2"/>
+    <sheet name="addCustomerTest" sheetId="3" r:id="rId3"/>
+    <sheet name="openAccountTest" sheetId="4" r:id="rId4"/>
+    <sheet name="findCarTest" sheetId="5" r:id="rId5"/>
+    <sheet name="carPriceTest" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+  <si>
+    <t>applicationname</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>browsername</t>
+  </si>
   <si>
     <t>username</t>
   </si>
@@ -38,10 +46,37 @@
     <t>password</t>
   </si>
   <si>
-    <t>w2ajava@way2automation.com</t>
-  </si>
-  <si>
-    <t>dsrfsdfs</t>
+    <t>runmode</t>
+  </si>
+  <si>
+    <t>My Credit Monitor</t>
+  </si>
+  <si>
+    <t>https://pguk-hx.ie1.qa2b.affiniongroup.com/?source=rqkQ2GTcaKt64j+2BMdssg</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>dpatel@tavisca.com</t>
+  </si>
+  <si>
+    <t>Password1</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Privacy Guard UK</t>
+  </si>
+  <si>
+    <t>https://pguk-hx.ie1.qa2b.affiniongroup.com/?source=jC7IAYwrzsRyfyw34Q8u6w==</t>
+  </si>
+  <si>
+    <t>dipti100</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>firstname</t>
@@ -50,15 +85,15 @@
     <t>lastname</t>
   </si>
   <si>
+    <t>postcode</t>
+  </si>
+  <si>
     <t>Rahul</t>
   </si>
   <si>
     <t>Arora</t>
   </si>
   <si>
-    <t>postcode</t>
-  </si>
-  <si>
     <t>A234234</t>
   </si>
   <si>
@@ -92,35 +127,80 @@
     <t>brandName</t>
   </si>
   <si>
+    <t>browser</t>
+  </si>
+  <si>
     <t>Maruti</t>
   </si>
   <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Kia</t>
+  </si>
+  <si>
     <t>Hyundai</t>
   </si>
   <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>runmode</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Kia</t>
+    <t>Manage my credit</t>
+  </si>
+  <si>
+    <t>https://pguk-hx.ie1.qa2b.affiniongroup.com/?ref=UKAIHOMEPG0026</t>
+  </si>
+  <si>
+    <t>testdata@gmail.com</t>
+  </si>
+  <si>
+    <t>Identity Secure</t>
+  </si>
+  <si>
+    <t>https:///pguk-hx.ie1.qa2b.affiniongroup.com/?ref=UKLZ1STDFLT0002</t>
+  </si>
+  <si>
+    <t>diptipatel1608@gmail.com</t>
+  </si>
+  <si>
+    <t>(Vanquis) Credit Tracker Identiy</t>
+  </si>
+  <si>
+    <t>https://pguk-hx.ie1.qa2b.affiniongroup.com/?source=OnSaHXM7BvXQ6mD37Zu3yQ==</t>
+  </si>
+  <si>
+    <t>ssltest@gmail.com</t>
+  </si>
+  <si>
+    <t>My Credit Tracker</t>
+  </si>
+  <si>
+    <t>https://pguk-hx.ie1.qa2b.affiniongroup.com/?ref=UKGENSTDFLT0002</t>
+  </si>
+  <si>
+    <t>jennystork@gmail.com</t>
+  </si>
+  <si>
+    <t>American Express Identity Defence</t>
+  </si>
+  <si>
+    <t>https://pguk-hx.ie1.qa2b.affiniongroup.com/?ref=UKAMXSTDFLT0001</t>
+  </si>
+  <si>
+    <t>MRY@gmail.com</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>https://www.google.com</t>
+  </si>
+  <si>
+    <t>https://www.gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +216,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,7 +232,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,14 +240,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -476,39 +594,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4" display="mailto:testdata@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7" display="mailto:diptipatel1608@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId9" display="mailto:ssltest@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId10"/>
+    <hyperlink ref="D7" r:id="rId11" display="mailto:jennystork@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId12"/>
+    <hyperlink ref="D8" r:id="rId13" display="mailto:MRY@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -520,46 +842,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -567,7 +889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -579,88 +901,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -680,57 +932,127 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
